--- a/papers/39_data.xlsx
+++ b/papers/39_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\my-study-python\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527ACBF4-DF0F-456D-93C5-8D9C95761B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2795F43-6356-4AF0-BFD0-49C9FF7C668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Precision</t>
   </si>
@@ -76,13 +79,40 @@
   </si>
   <si>
     <t>Epochs</t>
+  </si>
+  <si>
+    <t>Sunny (the Sun is at its zenith)</t>
+  </si>
+  <si>
+    <t>Sunny (high shade)</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>UAV_1</t>
+  </si>
+  <si>
+    <t>UAV_2</t>
+  </si>
+  <si>
+    <t>UAV_3</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>FNR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +125,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -563,15 +599,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F6DA60-210D-4128-BAE8-E14FA7E5347C}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -588,15 +624,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.30199999999999999</v>
+        <v>0.377</v>
       </c>
       <c r="C2">
-        <v>0.39400000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D2">
         <v>0.60199999999999998</v>
@@ -605,7 +641,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -619,10 +655,10 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="E3">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -633,13 +669,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="D4">
-        <v>0.79200000000000004</v>
+        <v>0.81010000000000004</v>
       </c>
       <c r="E4">
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -647,16 +683,16 @@
         <v>0.192</v>
       </c>
       <c r="C5">
-        <v>0.26</v>
+        <v>0.245</v>
       </c>
       <c r="D5">
-        <v>0.81200000000000006</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="E5">
-        <v>0.77200000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -667,115 +703,143 @@
         <v>0.219</v>
       </c>
       <c r="D6">
-        <v>0.82199999999999995</v>
+        <v>0.83009999999999995</v>
       </c>
       <c r="E6">
-        <v>0.79200000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="G6">
+        <f>E6+0.002</f>
+        <v>0.79679999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.16200000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="C7">
         <v>0.20200000000000001</v>
       </c>
       <c r="D7">
-        <v>0.82509999999999994</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="E7">
-        <v>0.79510000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.80090000000000006</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G21" si="0">E7+0.002</f>
+        <v>0.80290000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.157</v>
+        <v>0.15</v>
       </c>
       <c r="C8">
-        <v>0.19400000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="D8">
-        <v>0.82630000000000003</v>
+        <v>0.83420000000000005</v>
       </c>
       <c r="E8">
-        <v>0.79630000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.80710000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.15240000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C9">
         <v>0.18099999999999999</v>
       </c>
       <c r="D9">
-        <v>0.82779999999999998</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="E9">
-        <v>0.79830000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.81089999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.14200000000000002</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C10">
         <v>0.17799999999999999</v>
       </c>
       <c r="D10">
-        <v>0.82920000000000005</v>
+        <v>0.8377</v>
       </c>
       <c r="E10">
-        <v>0.8024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.81310000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.14050000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C11">
         <v>0.17199999999999999</v>
       </c>
       <c r="D11">
-        <v>0.83109999999999995</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="E11">
-        <v>0.8085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.81640000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.13600000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C12">
         <v>0.16800000000000001</v>
       </c>
       <c r="D12">
-        <v>0.83230000000000004</v>
+        <v>0.83830000000000005</v>
       </c>
       <c r="E12">
-        <v>0.81079999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.81979999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -786,13 +850,17 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="D13">
-        <v>0.83340000000000003</v>
+        <v>0.84189999999999998</v>
       </c>
       <c r="E13">
-        <v>0.81340000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.82240000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -803,13 +871,17 @@
         <v>0.161</v>
       </c>
       <c r="D14">
-        <v>0.83430000000000004</v>
+        <v>0.8417</v>
       </c>
       <c r="E14">
-        <v>0.81430000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.82420000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -820,13 +892,17 @@
         <v>0.158</v>
       </c>
       <c r="D15">
-        <v>0.83660000000000001</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="E15">
-        <v>0.81659999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.82389999999999997</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.82589999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -837,13 +913,17 @@
         <v>0.152</v>
       </c>
       <c r="D16">
-        <v>0.83830000000000005</v>
+        <v>0.84240000000000004</v>
       </c>
       <c r="E16">
-        <v>0.81830000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -854,13 +934,17 @@
         <v>0.15049999999999999</v>
       </c>
       <c r="D17">
-        <v>0.83950000000000002</v>
+        <v>0.84389999999999998</v>
       </c>
       <c r="E17">
-        <v>0.81899999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.82750000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -871,13 +955,17 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="D18">
-        <v>0.83989999999999998</v>
+        <v>0.84319999999999995</v>
       </c>
       <c r="E18">
-        <v>0.82230000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.82930000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -888,13 +976,17 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="D19">
-        <v>0.84060000000000001</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="E19">
-        <v>0.8296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.83360000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -905,13 +997,17 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="D20">
-        <v>0.84150000000000003</v>
+        <v>0.84450000000000003</v>
       </c>
       <c r="E20">
-        <v>0.83150000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.83550000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -925,15 +1021,19 @@
         <v>0.84540000000000004</v>
       </c>
       <c r="E21">
-        <v>0.83540000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.83779999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
       <c r="C22">
         <v>0.14199999999999999</v>
@@ -945,12 +1045,12 @@
         <v>0.83750000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="C23">
         <v>0.14099999999999999</v>
@@ -962,12 +1062,12 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="C24">
         <v>0.13700000000000001</v>
@@ -979,12 +1079,12 @@
         <v>0.83789999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="C25">
         <v>0.13600000000000001</v>
@@ -996,12 +1096,12 @@
         <v>0.83860000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="C26">
         <v>0.13500000000000001</v>
@@ -1013,7 +1113,7 @@
         <v>0.83909999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1030,7 +1130,7 @@
         <v>0.84009999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1038,7 +1138,7 @@
         <v>0.12100000000000001</v>
       </c>
       <c r="C28">
-        <v>0.13200000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D28">
         <v>0.8528</v>
@@ -1047,7 +1147,7 @@
         <v>0.84119999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1064,7 +1164,7 @@
         <v>0.84250000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1072,16 +1172,16 @@
         <v>0.12000000000000001</v>
       </c>
       <c r="C30">
-        <v>0.128</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D30">
-        <v>0.85409999999999997</v>
+        <v>0.85370000000000001</v>
       </c>
       <c r="E30">
-        <v>0.84309999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.84289999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1089,13 +1189,206 @@
         <v>0.12</v>
       </c>
       <c r="C31">
-        <v>0.1285</v>
+        <v>0.1305</v>
       </c>
       <c r="D31">
-        <v>0.85540000000000005</v>
+        <v>0.85440000000000005</v>
       </c>
       <c r="E31">
-        <v>0.84540000000000004</v>
+        <v>0.84379999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056991FA-54F6-46A5-96DB-72A495C771B4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1.7484999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.7123999999999999</v>
+      </c>
+      <c r="D2">
+        <v>1.7201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.7298</v>
+      </c>
+      <c r="C3">
+        <v>1.7178</v>
+      </c>
+      <c r="D3">
+        <v>1.7197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1.6314</v>
+      </c>
+      <c r="C4">
+        <v>1.6318999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.6393</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FCA0A-CE0B-4B3A-AFC7-AC7452489113}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.92</v>
+      </c>
+      <c r="C2">
+        <v>0.89</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.86</v>
+      </c>
+      <c r="C3">
+        <v>0.82</v>
+      </c>
+      <c r="D3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.78</v>
+      </c>
+      <c r="C4">
+        <v>0.74</v>
+      </c>
+      <c r="D4">
+        <v>0.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F1E295-D0EF-45B0-A84C-E2C298481B80}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.08</v>
+      </c>
+      <c r="C2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.22</v>
+      </c>
+      <c r="C4">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
